--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teresa\Dropbox\SWE\MicroERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\4.Semester\Software Engineering\WebServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>GUI</t>
+  </si>
+  <si>
+    <t>Facede, BL, DAL Grundlagen</t>
+  </si>
+  <si>
+    <t>Facede-&gt;BL-&gt;DAL</t>
+  </si>
+  <si>
+    <t>DAL-&gt;BL-&gt;Facade</t>
   </si>
 </sst>
 </file>
@@ -524,7 +533,7 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -577,7 +586,7 @@
       </c>
       <c r="C5" s="14">
         <f>SUMIF(B8:B100,"Karin",D8:D100)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
@@ -667,24 +676,48 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="5">
+        <v>41728</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="5">
+        <v>41729</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="5">
+        <v>41731</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
